--- a/_gen_outputs/xacml/xacml3_1.xml.xlsx
+++ b/_gen_outputs/xacml/xacml3_1.xml.xlsx
@@ -453,18 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;PolicySet xmlns="urn:oasis:names:tc:xacml:3.0:core:schema:wd-17" PolicyCombiningAlgId="urn:oasis:names:tc:xacml:3.0:policy-combining-algorithm:permit-overrides" PolicySetId="sli-mli-interface" Version="1.0"&gt;
-    &lt;Target&gt;
-        &lt;AnyOf&gt;
-            &lt;AllOf&gt;
-                &lt;Match MatchId="urn:oasis:names:tc:xacml:1.0:function:string-equal"&gt;
-                    &lt;AttributeValue DataType="http://www.w3.org/2001/XMLSchema#string"&gt;VIO&lt;/AttributeValue&gt;
-                    &lt;AttributeDesignator AttributeId="http://authz-interop.org/AAA/xacml/subject/subject-role" DataType="http://www.w3.org/2001/XMLSchema#string" MustBePresent="true"/&gt;
-                &lt;/Match&gt;
-            &lt;/AllOf&gt;
-        &lt;/AnyOf&gt;
-    &lt;/Target&gt;
-    &lt;Policy PolicyId="mli-interface" RuleCombiningAlgId="urn:oasis:names:tc:xacml:3.0:rule-combining-algorithm:permit-overrides" Version="1.0"&gt;
+          <t>&lt;Policy PolicyId="mli-interface" RuleCombiningAlgId="urn:oasis:names:tc:xacml:3.0:rule-combining-algorithm:permit-overrides" Version="1.0"&gt;
         &lt;Target&gt;
             &lt;AnyOf&gt;
                 &lt;AllOf&gt;
@@ -525,10 +514,10 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>{
-    "datalog_subjects": "Subject(S), has_role(S, 'VIO').",
-    "datalog_objects": "Resource(R), has_type(R, 'VR-IT').",
-    "datalog_relationships": "",
-    "datalog_actions": "can_access(S, R, 'MLI:ReplanningVI:Add-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT').\ncan_access(S, R, 'MLI:ReplanningVI:Modify-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT').\ncan_access(S, R, 'MLI:ReplanningVI:Delete-VR-IT') :- Subject(S), Resource(R), has_role(S, 'VIO'), has_type(R, 'VR-IT')."
+    "datalog_subjects": "Subject(S).",
+    "datalog_objects": "Resource(R).",
+    "datalog_relationships": "has_role(S, \"VIO\") :- Subject(S).\nhas_type(R, \"VR-IT\") :- Resource(R).",
+    "datalog_actions": "can_perform(S, R, \"MLI:ReplanningVI:Add-VR-IT\") :- Subject(S), Resource(R), has_role(S, \"VIO\"), has_type(R, \"VR-IT\").\ncan_perform(S, R, \"MLI:ReplanningVI:Modify-VR-IT\") :- Subject(S), Resource(R), has_role(S, \"VIO\"), has_type(R, \"VR-IT\").\ncan_perform(S, R, \"MLI:ReplanningVI:Delete-VR-IT\") :- Subject(S), Resource(R), has_role(S, \"VIO\"), has_type(R, \"VR-IT\")."
 }</t>
         </is>
       </c>
@@ -688,9 +677,9 @@
         <is>
           <t>{
     "datalog_subjects": "VIO(S).",
-    "datalog_objects": "VR(R), VR_RP_Info(RI), VR_State_Info(RSI), VR_Power_Info(RPI), VR_Status_Info(RSI2), VR_Info(RI2).",
+    "datalog_objects": "VR(R), VR_RP_Info(R), VR_State_Info(R), VR_Power_Info(R), VR_Status_Info(R), VR_Info(R).",
     "datalog_relationships": "",
-    "datalog_actions": "can_perform(S, R, 'SLI:Decommission-VR-IT') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Operate-VR') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Add-VirtualNetworkIf') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Remove-VirtualNetworkIf') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Create-StorageImage') :- VIO(S), VR(R). can_perform(S, R, 'SLI:Remove-StorageImage') :- VIO(S), VR(R). can_perform(S, RI, 'SLI:Get-Available-VR-Pool-IT') :- VIO(S), VR_RP_Info(RI). can_perform(S, RSI, 'SLI:Monitor-VR-Info') :- VIO(S), VR_State_Info(RSI). can_perform(S, RPI, 'SLI:Monitor-VR-Info') :- VIO(S), VR_Power_Info(RPI). can_perform(S, RSI2, 'SLI:Monitor-VR-Info') :- VIO(S), VR_Status_Info(RSI2). can_perform(S, RI2, 'SLI:Subscribe-VR-Monitoring') :- VIO(S), VR_Info(RI2). can_perform(S, RI2, 'SLI:Unsubscribe-VR-Monitoring') :- VIO(S), VR_Info(RI2)."
+    "datalog_actions": "can_perform(S, R, Decommission_VR_IT) :- VIO(S), VR(R). can_perform(S, R, Operate_VR) :- VIO(S), VR(R). can_perform(S, R, Add_VirtualNetworkIf) :- VIO(S), VR(R). can_perform(S, R, Remove_VirtualNetworkIf) :- VIO(S), VR(R). can_perform(S, R, Create_StorageImage) :- VIO(S), VR(R). can_perform(S, R, Remove_StorageImage) :- VIO(S), VR(R). can_perform(S, R, Get_Available_VR_Pool_IT) :- VIO(S), VR_RP_Info(R). can_perform(S, R, Monitor_VR_Info) :- VIO(S), VR_State_Info(R), VR_Power_Info(R), VR_Status_Info(R). can_perform(S, R, Subscribe_VR_Monitoring) :- VIO(S), VR_Info(R). can_perform(S, R, Unsubscribe_VR_Monitoring) :- VIO(S), VR_Info(R)."
 }</t>
         </is>
       </c>
